--- a/biology/Mycologie/Pleurotus_cornucopiae/Pleurotus_cornucopiae.xlsx
+++ b/biology/Mycologie/Pleurotus_cornucopiae/Pleurotus_cornucopiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleurotus cornucopiae de son nom vernaculaire, le pleurote cornucopié, en forme de corne d'abondance, est un champignon basidiomycète du genre Pleurotus de la famille des Pleurotacées. Comme Pleurotus ostreatus, il est cultivé.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau de 3 à 7 cm, cornucopié, convexe, cette espèce est moins polymorphe que Pleurotus ostreatus.
 Cuticule : grise ;
